--- a/dataanalysis/data/predictions/1400/08061436_1438.xlsx
+++ b/dataanalysis/data/predictions/1400/08061436_1438.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="168">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-06</t>
   </si>
   <si>
@@ -515,12 +518,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -878,13 +875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AI84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,19 +984,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300069</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>5.15</v>
@@ -1017,7 +1017,7 @@
         <v>84917.56</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1058,8 +1058,23 @@
       <c r="W2">
         <v>0.72</v>
       </c>
+      <c r="X2">
+        <v>-0.76</v>
+      </c>
+      <c r="Y2">
+        <v>27.59</v>
+      </c>
+      <c r="Z2">
+        <v>2.34</v>
+      </c>
       <c r="AC2" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1067,22 +1082,25 @@
       <c r="AG2">
         <v>1.431433320045471</v>
       </c>
-      <c r="AH2" t="s">
-        <v>167</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300199</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-8.91</v>
@@ -1100,7 +1118,7 @@
         <v>449936.13</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1141,8 +1159,23 @@
       <c r="W3">
         <v>-1.36</v>
       </c>
+      <c r="X3">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Y3">
+        <v>24.44</v>
+      </c>
+      <c r="Z3">
+        <v>4.44</v>
+      </c>
       <c r="AC3" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1150,22 +1183,25 @@
       <c r="AG3">
         <v>2.326116323471069</v>
       </c>
-      <c r="AH3" t="s">
-        <v>167</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300322</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>6.35</v>
@@ -1183,7 +1219,7 @@
         <v>252737.69</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1224,8 +1260,23 @@
       <c r="W4">
         <v>0.38</v>
       </c>
+      <c r="X4">
+        <v>20</v>
+      </c>
+      <c r="Y4">
+        <v>26.1</v>
+      </c>
+      <c r="Z4">
+        <v>18.91</v>
+      </c>
       <c r="AC4" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1233,22 +1284,25 @@
       <c r="AG4">
         <v>2.87495231628418</v>
       </c>
-      <c r="AH4" t="s">
-        <v>167</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300329</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>6.31</v>
@@ -1266,7 +1320,7 @@
         <v>65380.4</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1307,8 +1361,23 @@
       <c r="W5">
         <v>0.13</v>
       </c>
+      <c r="X5">
+        <v>3.7</v>
+      </c>
+      <c r="Y5">
+        <v>13.04</v>
+      </c>
+      <c r="Z5">
+        <v>1.8</v>
+      </c>
       <c r="AC5" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1316,22 +1385,25 @@
       <c r="AG5">
         <v>1.074102401733398</v>
       </c>
-      <c r="AH5" t="s">
-        <v>167</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300378</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>1.79</v>
@@ -1349,7 +1421,7 @@
         <v>255114.21</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K6">
         <v>9</v>
@@ -1390,8 +1462,23 @@
       <c r="W6">
         <v>-1.11</v>
       </c>
+      <c r="X6">
+        <v>2.36</v>
+      </c>
+      <c r="Y6">
+        <v>66.93000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>6.31</v>
+      </c>
       <c r="AC6" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1399,22 +1486,25 @@
       <c r="AG6">
         <v>3.800475120544434</v>
       </c>
-      <c r="AH6" t="s">
-        <v>167</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300410</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>5.82</v>
@@ -1432,7 +1522,7 @@
         <v>52702.89</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1473,8 +1563,23 @@
       <c r="W7">
         <v>1.71</v>
       </c>
+      <c r="X7">
+        <v>-2.97</v>
+      </c>
+      <c r="Y7">
+        <v>8.75</v>
+      </c>
+      <c r="Z7">
+        <v>0.23</v>
+      </c>
       <c r="AC7" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1482,22 +1587,25 @@
       <c r="AG7">
         <v>1.557105302810669</v>
       </c>
-      <c r="AH7" t="s">
-        <v>167</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300414</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>6.58</v>
@@ -1515,7 +1623,7 @@
         <v>95599.74000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K8">
         <v>18</v>
@@ -1556,8 +1664,23 @@
       <c r="W8">
         <v>0.79</v>
       </c>
+      <c r="X8">
+        <v>-4.58</v>
+      </c>
+      <c r="Y8">
+        <v>16.29</v>
+      </c>
+      <c r="Z8">
+        <v>1.56</v>
+      </c>
       <c r="AC8" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1565,22 +1688,25 @@
       <c r="AG8">
         <v>9.731201171875</v>
       </c>
-      <c r="AH8" t="s">
-        <v>167</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300436</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-5.99</v>
@@ -1598,7 +1724,7 @@
         <v>133875.76</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9">
         <v>25</v>
@@ -1639,8 +1765,23 @@
       <c r="W9">
         <v>-0.97</v>
       </c>
+      <c r="X9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>128.11</v>
+      </c>
+      <c r="Z9">
+        <v>10.3</v>
+      </c>
       <c r="AC9" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1648,22 +1789,25 @@
       <c r="AG9">
         <v>4.458033084869385</v>
       </c>
-      <c r="AH9" t="s">
-        <v>167</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300455</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-1.59</v>
@@ -1681,7 +1825,7 @@
         <v>116368.9</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1722,8 +1866,23 @@
       <c r="W10">
         <v>-0.41</v>
       </c>
+      <c r="X10">
+        <v>7.21</v>
+      </c>
+      <c r="Y10">
+        <v>19.06</v>
+      </c>
+      <c r="Z10">
+        <v>13.72</v>
+      </c>
       <c r="AC10" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1731,22 +1890,25 @@
       <c r="AG10">
         <v>1.485885381698608</v>
       </c>
-      <c r="AH10" t="s">
-        <v>167</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300500</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-2.56</v>
@@ -1764,7 +1926,7 @@
         <v>29397.35</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1805,8 +1967,23 @@
       <c r="W11">
         <v>0.08</v>
       </c>
+      <c r="X11">
+        <v>-3.44</v>
+      </c>
+      <c r="Y11">
+        <v>15.76</v>
+      </c>
+      <c r="Z11">
+        <v>0.96</v>
+      </c>
       <c r="AC11" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1814,22 +1991,25 @@
       <c r="AG11">
         <v>2.063647985458374</v>
       </c>
-      <c r="AH11" t="s">
-        <v>167</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300548</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-1.97</v>
@@ -1847,7 +2027,7 @@
         <v>180631.12</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K12">
         <v>17</v>
@@ -1888,8 +2068,23 @@
       <c r="W12">
         <v>-0.62</v>
       </c>
+      <c r="X12">
+        <v>-1.94</v>
+      </c>
+      <c r="Y12">
+        <v>94.72</v>
+      </c>
+      <c r="Z12">
+        <v>1.28</v>
+      </c>
       <c r="AC12" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1897,22 +2092,25 @@
       <c r="AG12">
         <v>7.902016639709473</v>
       </c>
-      <c r="AH12" t="s">
-        <v>167</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300554</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>1.74</v>
@@ -1930,7 +2128,7 @@
         <v>49847.76</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1971,8 +2169,23 @@
       <c r="W13">
         <v>-0.31</v>
       </c>
+      <c r="X13">
+        <v>1.37</v>
+      </c>
+      <c r="Y13">
+        <v>27.39</v>
+      </c>
+      <c r="Z13">
+        <v>4.34</v>
+      </c>
       <c r="AC13" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1980,22 +2193,25 @@
       <c r="AG13">
         <v>1.60755467414856</v>
       </c>
-      <c r="AH13" t="s">
-        <v>167</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300572</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>19.99</v>
@@ -2013,7 +2229,7 @@
         <v>99209.75</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2054,8 +2270,23 @@
       <c r="W14">
         <v>0.14</v>
       </c>
+      <c r="X14">
+        <v>-7.34</v>
+      </c>
+      <c r="Y14">
+        <v>33.65</v>
+      </c>
+      <c r="Z14">
+        <v>7.82</v>
+      </c>
       <c r="AC14" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -2063,22 +2294,25 @@
       <c r="AG14">
         <v>5.233196258544922</v>
       </c>
-      <c r="AH14" t="s">
-        <v>167</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300581</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>14.92</v>
@@ -2096,7 +2330,7 @@
         <v>261656.91</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2137,8 +2371,23 @@
       <c r="W15">
         <v>2.18</v>
       </c>
+      <c r="X15">
+        <v>-4.59</v>
+      </c>
+      <c r="Y15">
+        <v>24.52</v>
+      </c>
+      <c r="Z15">
+        <v>-2.35</v>
+      </c>
       <c r="AC15" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2146,22 +2395,25 @@
       <c r="AG15">
         <v>-0.5377939343452454</v>
       </c>
-      <c r="AH15" t="s">
-        <v>167</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300591</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>16.85</v>
@@ -2179,7 +2431,7 @@
         <v>206954.18</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2220,8 +2472,23 @@
       <c r="W16">
         <v>0.41</v>
       </c>
+      <c r="X16">
+        <v>3.57</v>
+      </c>
+      <c r="Y16">
+        <v>15.69</v>
+      </c>
+      <c r="Z16">
+        <v>7.25</v>
+      </c>
       <c r="AC16" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2229,22 +2496,25 @@
       <c r="AG16">
         <v>10.73629665374756</v>
       </c>
-      <c r="AH16" t="s">
-        <v>168</v>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300600</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -2262,7 +2532,7 @@
         <v>133783.88</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K17">
         <v>6</v>
@@ -2303,8 +2573,23 @@
       <c r="W17">
         <v>3.89</v>
       </c>
+      <c r="X17">
+        <v>8.02</v>
+      </c>
+      <c r="Y17">
+        <v>23.87</v>
+      </c>
+      <c r="Z17">
+        <v>15.31</v>
+      </c>
       <c r="AC17" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2312,22 +2597,25 @@
       <c r="AG17">
         <v>10.11237907409668</v>
       </c>
-      <c r="AH17" t="s">
-        <v>168</v>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300609</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-3.98</v>
@@ -2345,7 +2633,7 @@
         <v>42635.94</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -2386,8 +2674,23 @@
       <c r="W18">
         <v>-0.75</v>
       </c>
+      <c r="X18">
+        <v>4.66</v>
+      </c>
+      <c r="Y18">
+        <v>48.3</v>
+      </c>
+      <c r="Z18">
+        <v>5.92</v>
+      </c>
       <c r="AC18" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2395,22 +2698,25 @@
       <c r="AG18">
         <v>0.8484296202659607</v>
       </c>
-      <c r="AH18" t="s">
-        <v>167</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300644</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>12.2</v>
@@ -2428,7 +2734,7 @@
         <v>105429.32</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2469,8 +2775,23 @@
       <c r="W19">
         <v>-0.12</v>
       </c>
+      <c r="X19">
+        <v>-3.39</v>
+      </c>
+      <c r="Y19">
+        <v>40.65</v>
+      </c>
+      <c r="Z19">
+        <v>0.25</v>
+      </c>
       <c r="AC19" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2478,22 +2799,25 @@
       <c r="AG19">
         <v>10.93671226501465</v>
       </c>
-      <c r="AH19" t="s">
-        <v>167</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300648</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>5.89</v>
@@ -2511,7 +2835,7 @@
         <v>55745.79</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2552,8 +2876,23 @@
       <c r="W20">
         <v>0.46</v>
       </c>
+      <c r="X20">
+        <v>-0.15</v>
+      </c>
+      <c r="Y20">
+        <v>56.49</v>
+      </c>
+      <c r="Z20">
+        <v>4.75</v>
+      </c>
       <c r="AC20" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2561,22 +2900,25 @@
       <c r="AG20">
         <v>3.853043794631958</v>
       </c>
-      <c r="AH20" t="s">
-        <v>167</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300683</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-1.58</v>
@@ -2594,7 +2936,7 @@
         <v>62128.84</v>
       </c>
       <c r="J21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K21">
         <v>13</v>
@@ -2635,8 +2977,23 @@
       <c r="W21">
         <v>-0.39</v>
       </c>
+      <c r="X21">
+        <v>-3.97</v>
+      </c>
+      <c r="Y21">
+        <v>55.27</v>
+      </c>
+      <c r="Z21">
+        <v>4.48</v>
+      </c>
       <c r="AC21" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2644,22 +3001,25 @@
       <c r="AG21">
         <v>4.362538814544678</v>
       </c>
-      <c r="AH21" t="s">
-        <v>167</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300684</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>4.44</v>
@@ -2677,7 +3037,7 @@
         <v>117489.97</v>
       </c>
       <c r="J22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2718,8 +3078,23 @@
       <c r="W22">
         <v>0.79</v>
       </c>
+      <c r="X22">
+        <v>-3.59</v>
+      </c>
+      <c r="Y22">
+        <v>32.19</v>
+      </c>
+      <c r="Z22">
+        <v>2.22</v>
+      </c>
       <c r="AC22" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2727,22 +3102,25 @@
       <c r="AG22">
         <v>0.426148533821106</v>
       </c>
-      <c r="AH22" t="s">
-        <v>167</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300689</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>6.59</v>
@@ -2760,7 +3138,7 @@
         <v>79036.95</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2801,8 +3179,23 @@
       <c r="W23">
         <v>-0.48</v>
       </c>
+      <c r="X23">
+        <v>2.39</v>
+      </c>
+      <c r="Y23">
+        <v>63.55</v>
+      </c>
+      <c r="Z23">
+        <v>5.11</v>
+      </c>
       <c r="AC23" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2810,22 +3203,25 @@
       <c r="AG23">
         <v>2.581260919570923</v>
       </c>
-      <c r="AH23" t="s">
-        <v>167</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300696</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>4.17</v>
@@ -2843,7 +3239,7 @@
         <v>176245.06</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2884,8 +3280,23 @@
       <c r="W24">
         <v>0.26</v>
       </c>
+      <c r="X24">
+        <v>-4.45</v>
+      </c>
+      <c r="Y24">
+        <v>32.43</v>
+      </c>
+      <c r="Z24">
+        <v>-3.22</v>
+      </c>
       <c r="AC24" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2893,22 +3304,25 @@
       <c r="AG24">
         <v>2.026416301727295</v>
       </c>
-      <c r="AH24" t="s">
-        <v>167</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300706</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>3.48</v>
@@ -2926,7 +3340,7 @@
         <v>137184.96</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K25">
         <v>9</v>
@@ -2967,8 +3381,23 @@
       <c r="W25">
         <v>0.17</v>
       </c>
+      <c r="X25">
+        <v>19.99</v>
+      </c>
+      <c r="Y25">
+        <v>47.66</v>
+      </c>
+      <c r="Z25">
+        <v>19.75</v>
+      </c>
       <c r="AC25" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2976,22 +3405,25 @@
       <c r="AG25">
         <v>2.954668521881104</v>
       </c>
-      <c r="AH25" t="s">
-        <v>167</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300722</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>4.58</v>
@@ -3009,7 +3441,7 @@
         <v>97052.42</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26">
         <v>13</v>
@@ -3050,8 +3482,23 @@
       <c r="W26">
         <v>0.32</v>
       </c>
+      <c r="X26">
+        <v>-0.73</v>
+      </c>
+      <c r="Y26">
+        <v>40.98</v>
+      </c>
+      <c r="Z26">
+        <v>-0.22</v>
+      </c>
       <c r="AC26" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3059,22 +3506,25 @@
       <c r="AG26">
         <v>2.347395896911621</v>
       </c>
-      <c r="AH26" t="s">
-        <v>167</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300731</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>19.99</v>
@@ -3092,7 +3542,7 @@
         <v>134312.69</v>
       </c>
       <c r="J27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3133,8 +3583,23 @@
       <c r="W27">
         <v>2.41</v>
       </c>
+      <c r="X27">
+        <v>1.42</v>
+      </c>
+      <c r="Y27">
+        <v>49.77</v>
+      </c>
+      <c r="Z27">
+        <v>5.62</v>
+      </c>
       <c r="AC27" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3142,22 +3607,25 @@
       <c r="AG27">
         <v>9.532506942749023</v>
       </c>
-      <c r="AH27" t="s">
-        <v>168</v>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300732</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-7.43</v>
@@ -3175,7 +3643,7 @@
         <v>57291.57</v>
       </c>
       <c r="J28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K28">
         <v>6</v>
@@ -3216,8 +3684,23 @@
       <c r="W28">
         <v>-0.96</v>
       </c>
+      <c r="X28">
+        <v>1.89</v>
+      </c>
+      <c r="Y28">
+        <v>11.27</v>
+      </c>
+      <c r="Z28">
+        <v>5.13</v>
+      </c>
       <c r="AC28" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -3225,22 +3708,25 @@
       <c r="AG28">
         <v>2.067873001098633</v>
       </c>
-      <c r="AH28" t="s">
-        <v>167</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300733</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-2.38</v>
@@ -3258,7 +3744,7 @@
         <v>64839.49</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3299,8 +3785,23 @@
       <c r="W29">
         <v>-0.67</v>
       </c>
+      <c r="X29">
+        <v>7.1</v>
+      </c>
+      <c r="Y29">
+        <v>25.98</v>
+      </c>
+      <c r="Z29">
+        <v>11.17</v>
+      </c>
       <c r="AC29" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3308,22 +3809,25 @@
       <c r="AG29">
         <v>1.526352405548096</v>
       </c>
-      <c r="AH29" t="s">
-        <v>167</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300767</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>14.91</v>
@@ -3341,7 +3845,7 @@
         <v>69864.13</v>
       </c>
       <c r="J30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3382,8 +3886,23 @@
       <c r="W30">
         <v>1.64</v>
       </c>
+      <c r="X30">
+        <v>1.08</v>
+      </c>
+      <c r="Y30">
+        <v>17.14</v>
+      </c>
+      <c r="Z30">
+        <v>2.51</v>
+      </c>
       <c r="AC30" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3391,22 +3910,25 @@
       <c r="AG30">
         <v>5.151756286621094</v>
       </c>
-      <c r="AH30" t="s">
-        <v>168</v>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300830</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>3.06</v>
@@ -3424,7 +3946,7 @@
         <v>97866.60000000001</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3465,8 +3987,23 @@
       <c r="W31">
         <v>1.04</v>
       </c>
+      <c r="X31">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="Y31">
+        <v>15.99</v>
+      </c>
+      <c r="Z31">
+        <v>21.6</v>
+      </c>
       <c r="AC31" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3474,22 +4011,25 @@
       <c r="AG31">
         <v>3.259061574935913</v>
       </c>
-      <c r="AH31" t="s">
-        <v>167</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300875</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>20.01</v>
@@ -3507,7 +4047,7 @@
         <v>115557.53</v>
       </c>
       <c r="J32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3548,8 +4088,23 @@
       <c r="W32">
         <v>1.15</v>
       </c>
+      <c r="X32">
+        <v>6.3</v>
+      </c>
+      <c r="Y32">
+        <v>69</v>
+      </c>
+      <c r="Z32">
+        <v>18.84</v>
+      </c>
       <c r="AC32" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3557,22 +4112,25 @@
       <c r="AG32">
         <v>16.88836288452148</v>
       </c>
-      <c r="AH32" t="s">
-        <v>168</v>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300885</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -3590,7 +4148,7 @@
         <v>118119.94</v>
       </c>
       <c r="J33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K33">
         <v>11</v>
@@ -3631,8 +4189,23 @@
       <c r="W33">
         <v>1</v>
       </c>
+      <c r="X33">
+        <v>6.76</v>
+      </c>
+      <c r="Y33">
+        <v>31.63</v>
+      </c>
+      <c r="Z33">
+        <v>9.6</v>
+      </c>
       <c r="AC33" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3640,22 +4213,25 @@
       <c r="AG33">
         <v>13.55726909637451</v>
       </c>
-      <c r="AH33" t="s">
-        <v>167</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300903</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>5.88</v>
@@ -3673,7 +4249,7 @@
         <v>67057.8</v>
       </c>
       <c r="J34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K34">
         <v>7</v>
@@ -3714,8 +4290,23 @@
       <c r="W34">
         <v>1.09</v>
       </c>
+      <c r="X34">
+        <v>3.34</v>
+      </c>
+      <c r="Y34">
+        <v>14.14</v>
+      </c>
+      <c r="Z34">
+        <v>12.22</v>
+      </c>
       <c r="AC34" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3723,22 +4314,25 @@
       <c r="AG34">
         <v>2.115875244140625</v>
       </c>
-      <c r="AH34" t="s">
-        <v>167</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300916</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>1.05</v>
@@ -3756,7 +4350,7 @@
         <v>74036.38</v>
       </c>
       <c r="J35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3797,8 +4391,23 @@
       <c r="W35">
         <v>0.87</v>
       </c>
+      <c r="X35">
+        <v>-4.63</v>
+      </c>
+      <c r="Y35">
+        <v>42.75</v>
+      </c>
+      <c r="Z35">
+        <v>-1</v>
+      </c>
       <c r="AC35" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3806,22 +4415,25 @@
       <c r="AG35">
         <v>3.137898445129395</v>
       </c>
-      <c r="AH35" t="s">
-        <v>167</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300922</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>8.49</v>
@@ -3839,7 +4451,7 @@
         <v>64969.25</v>
       </c>
       <c r="J36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3880,8 +4492,23 @@
       <c r="W36">
         <v>0.1</v>
       </c>
+      <c r="X36">
+        <v>-1.53</v>
+      </c>
+      <c r="Y36">
+        <v>32.6</v>
+      </c>
+      <c r="Z36">
+        <v>-0.31</v>
+      </c>
       <c r="AC36" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3889,22 +4516,25 @@
       <c r="AG36">
         <v>6.389096736907959</v>
       </c>
-      <c r="AH36" t="s">
-        <v>167</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300943</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-4.3</v>
@@ -3922,7 +4552,7 @@
         <v>63952.23</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3963,8 +4593,23 @@
       <c r="W37">
         <v>-1.21</v>
       </c>
+      <c r="X37">
+        <v>2.32</v>
+      </c>
+      <c r="Y37">
+        <v>18.44</v>
+      </c>
+      <c r="Z37">
+        <v>3.48</v>
+      </c>
       <c r="AC37" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3972,22 +4617,25 @@
       <c r="AG37">
         <v>4.422183513641357</v>
       </c>
-      <c r="AH37" t="s">
-        <v>167</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300965</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>14.03</v>
@@ -4005,7 +4653,7 @@
         <v>71593.73</v>
       </c>
       <c r="J38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -4046,8 +4694,23 @@
       <c r="W38">
         <v>0.91</v>
       </c>
+      <c r="X38">
+        <v>-4.45</v>
+      </c>
+      <c r="Y38">
+        <v>90.84</v>
+      </c>
+      <c r="Z38">
+        <v>-0.47</v>
+      </c>
       <c r="AC38" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4055,22 +4718,25 @@
       <c r="AG38">
         <v>1.795751452445984</v>
       </c>
-      <c r="AH38" t="s">
-        <v>167</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300966</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-6.33</v>
@@ -4088,7 +4754,7 @@
         <v>31559.07</v>
       </c>
       <c r="J39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -4129,8 +4795,23 @@
       <c r="W39">
         <v>-0.38</v>
       </c>
+      <c r="X39">
+        <v>-0.52</v>
+      </c>
+      <c r="Y39">
+        <v>25.9</v>
+      </c>
+      <c r="Z39">
+        <v>2.98</v>
+      </c>
       <c r="AC39" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4138,22 +4819,25 @@
       <c r="AG39">
         <v>3.397533416748047</v>
       </c>
-      <c r="AH39" t="s">
-        <v>167</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300993</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>5.18</v>
@@ -4171,7 +4855,7 @@
         <v>32069.82</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4212,8 +4896,23 @@
       <c r="W40">
         <v>0.21</v>
       </c>
+      <c r="X40">
+        <v>-1.22</v>
+      </c>
+      <c r="Y40">
+        <v>16.7</v>
+      </c>
+      <c r="Z40">
+        <v>2.83</v>
+      </c>
       <c r="AC40" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4221,22 +4920,25 @@
       <c r="AG40">
         <v>1.187658190727234</v>
       </c>
-      <c r="AH40" t="s">
-        <v>167</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301005</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>3.97</v>
@@ -4254,7 +4956,7 @@
         <v>67093.03999999999</v>
       </c>
       <c r="J41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4295,8 +4997,23 @@
       <c r="W41">
         <v>0.63</v>
       </c>
+      <c r="X41">
+        <v>2.84</v>
+      </c>
+      <c r="Y41">
+        <v>47.34</v>
+      </c>
+      <c r="Z41">
+        <v>6.38</v>
+      </c>
       <c r="AC41" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4304,22 +5021,25 @@
       <c r="AG41">
         <v>3.687823057174683</v>
       </c>
-      <c r="AH41" t="s">
-        <v>167</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301007</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-1.32</v>
@@ -4337,7 +5057,7 @@
         <v>51794.07</v>
       </c>
       <c r="J42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -4378,8 +5098,23 @@
       <c r="W42">
         <v>-0.32</v>
       </c>
+      <c r="X42">
+        <v>0.49</v>
+      </c>
+      <c r="Y42">
+        <v>39.65</v>
+      </c>
+      <c r="Z42">
+        <v>1.95</v>
+      </c>
       <c r="AC42" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4387,22 +5122,25 @@
       <c r="AG42">
         <v>4.019852638244629</v>
       </c>
-      <c r="AH42" t="s">
-        <v>167</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301022</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>8.4</v>
@@ -4420,7 +5158,7 @@
         <v>40842.65</v>
       </c>
       <c r="J43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4461,8 +5199,23 @@
       <c r="W43">
         <v>0.78</v>
       </c>
+      <c r="X43">
+        <v>-0.43</v>
+      </c>
+      <c r="Y43">
+        <v>41.68</v>
+      </c>
+      <c r="Z43">
+        <v>1.21</v>
+      </c>
       <c r="AC43" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4470,22 +5223,25 @@
       <c r="AG43">
         <v>3.088953495025635</v>
       </c>
-      <c r="AH43" t="s">
-        <v>167</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301052</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-3.35</v>
@@ -4503,7 +5259,7 @@
         <v>44237.26</v>
       </c>
       <c r="J44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4544,8 +5300,23 @@
       <c r="W44">
         <v>-0.41</v>
       </c>
+      <c r="X44">
+        <v>-1.48</v>
+      </c>
+      <c r="Y44">
+        <v>65.3</v>
+      </c>
+      <c r="Z44">
+        <v>1.52</v>
+      </c>
       <c r="AC44" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4553,22 +5324,25 @@
       <c r="AG44">
         <v>5.024475574493408</v>
       </c>
-      <c r="AH44" t="s">
-        <v>167</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301076</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>20</v>
@@ -4586,7 +5360,7 @@
         <v>124724.63</v>
       </c>
       <c r="J45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4627,8 +5401,23 @@
       <c r="W45">
         <v>0.06</v>
       </c>
+      <c r="X45">
+        <v>10.39</v>
+      </c>
+      <c r="Y45">
+        <v>49.96</v>
+      </c>
+      <c r="Z45">
+        <v>12.07</v>
+      </c>
       <c r="AC45" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4636,22 +5425,25 @@
       <c r="AG45">
         <v>16.25654220581055</v>
       </c>
-      <c r="AH45" t="s">
-        <v>167</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301095</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>8.869999999999999</v>
@@ -4669,7 +5461,7 @@
         <v>122105.93</v>
       </c>
       <c r="J46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K46">
         <v>6</v>
@@ -4710,8 +5502,23 @@
       <c r="W46">
         <v>0.22</v>
       </c>
+      <c r="X46">
+        <v>3.47</v>
+      </c>
+      <c r="Y46">
+        <v>78.5</v>
+      </c>
+      <c r="Z46">
+        <v>5.91</v>
+      </c>
       <c r="AC46" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4719,22 +5526,25 @@
       <c r="AG46">
         <v>5.247345924377441</v>
       </c>
-      <c r="AH46" t="s">
-        <v>167</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301117</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>19.99</v>
@@ -4752,7 +5562,7 @@
         <v>55462.28</v>
       </c>
       <c r="J47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4793,8 +5603,23 @@
       <c r="W47">
         <v>5.29</v>
       </c>
+      <c r="X47">
+        <v>19.99</v>
+      </c>
+      <c r="Y47">
+        <v>42.86</v>
+      </c>
+      <c r="Z47">
+        <v>19.99</v>
+      </c>
       <c r="AC47" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4802,22 +5627,25 @@
       <c r="AG47">
         <v>10.88112640380859</v>
       </c>
-      <c r="AH47" t="s">
-        <v>168</v>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301123</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -4835,7 +5663,7 @@
         <v>66568.25999999999</v>
       </c>
       <c r="J48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4876,8 +5704,23 @@
       <c r="W48">
         <v>0.43</v>
       </c>
+      <c r="X48">
+        <v>-3.74</v>
+      </c>
+      <c r="Y48">
+        <v>32.9</v>
+      </c>
+      <c r="Z48">
+        <v>2.4</v>
+      </c>
       <c r="AC48" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>1</v>
@@ -4885,22 +5728,25 @@
       <c r="AG48">
         <v>4.057190895080566</v>
       </c>
-      <c r="AH48" t="s">
-        <v>168</v>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301150</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>2.87</v>
@@ -4918,7 +5764,7 @@
         <v>49525.84</v>
       </c>
       <c r="J49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K49">
         <v>9</v>
@@ -4959,8 +5805,23 @@
       <c r="W49">
         <v>0.65</v>
       </c>
+      <c r="X49">
+        <v>-4.63</v>
+      </c>
+      <c r="Y49">
+        <v>29.63</v>
+      </c>
+      <c r="Z49">
+        <v>1.89</v>
+      </c>
       <c r="AC49" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4968,22 +5829,25 @@
       <c r="AG49">
         <v>6.560121059417725</v>
       </c>
-      <c r="AH49" t="s">
-        <v>167</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301161</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>5.74</v>
@@ -5001,7 +5865,7 @@
         <v>70601.14999999999</v>
       </c>
       <c r="J50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -5042,8 +5906,23 @@
       <c r="W50">
         <v>1.87</v>
       </c>
+      <c r="X50">
+        <v>7.5</v>
+      </c>
+      <c r="Y50">
+        <v>38.58</v>
+      </c>
+      <c r="Z50">
+        <v>12.02</v>
+      </c>
       <c r="AC50" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5051,22 +5930,25 @@
       <c r="AG50">
         <v>4.17207145690918</v>
       </c>
-      <c r="AH50" t="s">
-        <v>167</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301200</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>6.02</v>
@@ -5084,7 +5966,7 @@
         <v>98055.32000000001</v>
       </c>
       <c r="J51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K51">
         <v>10</v>
@@ -5125,8 +6007,23 @@
       <c r="W51">
         <v>2.12</v>
       </c>
+      <c r="X51">
+        <v>-0.19</v>
+      </c>
+      <c r="Y51">
+        <v>88.98</v>
+      </c>
+      <c r="Z51">
+        <v>0.51</v>
+      </c>
       <c r="AC51" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5134,22 +6031,25 @@
       <c r="AG51">
         <v>3.763495445251465</v>
       </c>
-      <c r="AH51" t="s">
-        <v>167</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301213</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>3.71</v>
@@ -5167,7 +6067,7 @@
         <v>54687.08</v>
       </c>
       <c r="J52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5208,8 +6108,23 @@
       <c r="W52">
         <v>-0.08</v>
       </c>
+      <c r="X52">
+        <v>-7.35</v>
+      </c>
+      <c r="Y52">
+        <v>75.5</v>
+      </c>
+      <c r="Z52">
+        <v>-2.02</v>
+      </c>
       <c r="AC52" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5217,22 +6132,25 @@
       <c r="AG52">
         <v>4.075984954833984</v>
       </c>
-      <c r="AH52" t="s">
-        <v>167</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301251</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>3.4</v>
@@ -5250,7 +6168,7 @@
         <v>55252.26</v>
       </c>
       <c r="J53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5291,8 +6209,23 @@
       <c r="W53">
         <v>0.22</v>
       </c>
+      <c r="X53">
+        <v>-0.04</v>
+      </c>
+      <c r="Y53">
+        <v>50.77</v>
+      </c>
+      <c r="Z53">
+        <v>7</v>
+      </c>
       <c r="AC53" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5300,22 +6233,25 @@
       <c r="AG53">
         <v>7.405889511108398</v>
       </c>
-      <c r="AH53" t="s">
-        <v>167</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301285</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>4.01</v>
@@ -5333,7 +6269,7 @@
         <v>36167.82</v>
       </c>
       <c r="J54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K54">
         <v>8</v>
@@ -5374,8 +6310,23 @@
       <c r="W54">
         <v>1.02</v>
       </c>
+      <c r="X54">
+        <v>-0.31</v>
+      </c>
+      <c r="Y54">
+        <v>45.58</v>
+      </c>
+      <c r="Z54">
+        <v>0.91</v>
+      </c>
       <c r="AC54" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5383,22 +6334,25 @@
       <c r="AG54">
         <v>0.8003025054931641</v>
       </c>
-      <c r="AH54" t="s">
-        <v>167</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301306</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>9.24</v>
@@ -5416,7 +6370,7 @@
         <v>78226.27</v>
       </c>
       <c r="J55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K55">
         <v>11</v>
@@ -5457,8 +6411,23 @@
       <c r="W55">
         <v>1.48</v>
       </c>
+      <c r="X55">
+        <v>-3.42</v>
+      </c>
+      <c r="Y55">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="Z55">
+        <v>-0.36</v>
+      </c>
       <c r="AC55" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5466,22 +6435,25 @@
       <c r="AG55">
         <v>5.251234531402588</v>
       </c>
-      <c r="AH55" t="s">
-        <v>167</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301311</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>4.31</v>
@@ -5499,7 +6471,7 @@
         <v>47714.84</v>
       </c>
       <c r="J56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5540,8 +6512,23 @@
       <c r="W56">
         <v>0.31</v>
       </c>
+      <c r="X56">
+        <v>-3.18</v>
+      </c>
+      <c r="Y56">
+        <v>23.9</v>
+      </c>
+      <c r="Z56">
+        <v>-0.17</v>
+      </c>
       <c r="AC56" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5549,22 +6536,25 @@
       <c r="AG56">
         <v>4.755692005157471</v>
       </c>
-      <c r="AH56" t="s">
-        <v>167</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301357</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>20</v>
@@ -5582,7 +6572,7 @@
         <v>186518.45</v>
       </c>
       <c r="J57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K57">
         <v>7</v>
@@ -5623,8 +6613,23 @@
       <c r="W57">
         <v>1.72</v>
       </c>
+      <c r="X57">
+        <v>1.32</v>
+      </c>
+      <c r="Y57">
+        <v>177.68</v>
+      </c>
+      <c r="Z57">
+        <v>12.53</v>
+      </c>
       <c r="AC57" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>1</v>
@@ -5632,22 +6637,25 @@
       <c r="AG57">
         <v>17.87676239013672</v>
       </c>
-      <c r="AH57" t="s">
-        <v>167</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301389</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>6.03</v>
@@ -5665,7 +6673,7 @@
         <v>147476.01</v>
       </c>
       <c r="J58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K58">
         <v>22</v>
@@ -5706,8 +6714,23 @@
       <c r="W58">
         <v>2.6</v>
       </c>
+      <c r="X58">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>54.99</v>
+      </c>
+      <c r="Z58">
+        <v>-0.02</v>
+      </c>
       <c r="AC58" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>1</v>
@@ -5715,22 +6738,25 @@
       <c r="AG58">
         <v>3.126729726791382</v>
       </c>
-      <c r="AH58" t="s">
-        <v>168</v>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301392</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>2.44</v>
@@ -5748,7 +6774,7 @@
         <v>47152.99</v>
       </c>
       <c r="J59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K59">
         <v>7</v>
@@ -5789,8 +6815,23 @@
       <c r="W59">
         <v>0.15</v>
       </c>
+      <c r="X59">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>184.69</v>
+      </c>
+      <c r="Z59">
+        <v>12.26</v>
+      </c>
       <c r="AC59" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5798,22 +6839,25 @@
       <c r="AG59">
         <v>2.851155281066895</v>
       </c>
-      <c r="AH59" t="s">
-        <v>167</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301421</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>1.2</v>
@@ -5831,7 +6875,7 @@
         <v>70565.00999999999</v>
       </c>
       <c r="J60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5872,8 +6916,23 @@
       <c r="W60">
         <v>-1.28</v>
       </c>
+      <c r="X60">
+        <v>1.21</v>
+      </c>
+      <c r="Y60">
+        <v>85.5</v>
+      </c>
+      <c r="Z60">
+        <v>4.82</v>
+      </c>
       <c r="AC60" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5881,22 +6940,25 @@
       <c r="AG60">
         <v>4.886573314666748</v>
       </c>
-      <c r="AH60" t="s">
-        <v>167</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301489</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>7.76</v>
@@ -5914,7 +6976,7 @@
         <v>102055.51</v>
       </c>
       <c r="J61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -5955,8 +7017,23 @@
       <c r="W61">
         <v>0.44</v>
       </c>
+      <c r="X61">
+        <v>-8.58</v>
+      </c>
+      <c r="Y61">
+        <v>136.89</v>
+      </c>
+      <c r="Z61">
+        <v>-0.9</v>
+      </c>
       <c r="AC61" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -5964,22 +7041,25 @@
       <c r="AG61">
         <v>4.809486389160156</v>
       </c>
-      <c r="AH61" t="s">
-        <v>167</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301529</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>8.16</v>
@@ -5997,7 +7077,7 @@
         <v>33133.88</v>
       </c>
       <c r="J62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K62">
         <v>13</v>
@@ -6038,8 +7118,23 @@
       <c r="W62">
         <v>1.79</v>
       </c>
+      <c r="X62">
+        <v>-0.6</v>
+      </c>
+      <c r="Y62">
+        <v>78.88</v>
+      </c>
+      <c r="Z62">
+        <v>5.88</v>
+      </c>
       <c r="AC62" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6047,22 +7142,25 @@
       <c r="AG62">
         <v>4.098016262054443</v>
       </c>
-      <c r="AH62" t="s">
-        <v>167</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301626</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>4.71</v>
@@ -6080,7 +7178,7 @@
         <v>28613.93</v>
       </c>
       <c r="J63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6121,8 +7219,23 @@
       <c r="W63">
         <v>0.52</v>
       </c>
+      <c r="X63">
+        <v>-3.79</v>
+      </c>
+      <c r="Y63">
+        <v>148.38</v>
+      </c>
+      <c r="Z63">
+        <v>2.74</v>
+      </c>
       <c r="AC63" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6130,22 +7243,25 @@
       <c r="AG63">
         <v>0.3936250805854797</v>
       </c>
-      <c r="AH63" t="s">
-        <v>167</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688011</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>2.37</v>
@@ -6163,7 +7279,7 @@
         <v>30472.84</v>
       </c>
       <c r="J64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K64">
         <v>4</v>
@@ -6204,8 +7320,23 @@
       <c r="W64">
         <v>-0.18</v>
       </c>
+      <c r="X64">
+        <v>-0.52</v>
+      </c>
+      <c r="Y64">
+        <v>50.86</v>
+      </c>
+      <c r="Z64">
+        <v>6.85</v>
+      </c>
       <c r="AC64" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>1</v>
@@ -6213,22 +7344,25 @@
       <c r="AG64">
         <v>2.435433626174927</v>
       </c>
-      <c r="AH64" t="s">
-        <v>167</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688039</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>20</v>
@@ -6246,7 +7380,7 @@
         <v>73036.89999999999</v>
       </c>
       <c r="J65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K65">
         <v>4</v>
@@ -6287,8 +7421,23 @@
       <c r="W65">
         <v>0.77</v>
       </c>
+      <c r="X65">
+        <v>1.06</v>
+      </c>
+      <c r="Y65">
+        <v>63.6</v>
+      </c>
+      <c r="Z65">
+        <v>8.609999999999999</v>
+      </c>
       <c r="AC65" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD65">
+        <v>1</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6296,22 +7445,25 @@
       <c r="AG65">
         <v>13.66315364837646</v>
       </c>
-      <c r="AH65" t="s">
-        <v>167</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688048</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>2.56</v>
@@ -6329,7 +7481,7 @@
         <v>81048.99000000001</v>
       </c>
       <c r="J66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6370,8 +7522,23 @@
       <c r="W66">
         <v>0.32</v>
       </c>
+      <c r="X66">
+        <v>-2.89</v>
+      </c>
+      <c r="Y66">
+        <v>79.95999999999999</v>
+      </c>
+      <c r="Z66">
+        <v>3.04</v>
+      </c>
       <c r="AC66" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6379,22 +7546,25 @@
       <c r="AG66">
         <v>3.810022592544556</v>
       </c>
-      <c r="AH66" t="s">
-        <v>167</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688059</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>3.46</v>
@@ -6412,7 +7582,7 @@
         <v>40897.14</v>
       </c>
       <c r="J67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6453,8 +7623,23 @@
       <c r="W67">
         <v>0.58</v>
       </c>
+      <c r="X67">
+        <v>-0.64</v>
+      </c>
+      <c r="Y67">
+        <v>65.83</v>
+      </c>
+      <c r="Z67">
+        <v>0.43</v>
+      </c>
       <c r="AC67" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6462,22 +7647,25 @@
       <c r="AG67">
         <v>3.350708961486816</v>
       </c>
-      <c r="AH67" t="s">
-        <v>167</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688081</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>1.48</v>
@@ -6495,7 +7683,7 @@
         <v>32903.4</v>
       </c>
       <c r="J68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6536,8 +7724,23 @@
       <c r="W68">
         <v>-0.88</v>
       </c>
+      <c r="X68">
+        <v>5.18</v>
+      </c>
+      <c r="Y68">
+        <v>28.88</v>
+      </c>
+      <c r="Z68">
+        <v>8.119999999999999</v>
+      </c>
       <c r="AC68" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6545,22 +7748,25 @@
       <c r="AG68">
         <v>1.197585940361023</v>
       </c>
-      <c r="AH68" t="s">
-        <v>167</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688110</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>0.07000000000000001</v>
@@ -6578,7 +7784,7 @@
         <v>300435.71</v>
       </c>
       <c r="J69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K69">
         <v>7</v>
@@ -6619,8 +7825,23 @@
       <c r="W69">
         <v>-0.4</v>
       </c>
+      <c r="X69">
+        <v>20</v>
+      </c>
+      <c r="Y69">
+        <v>73.2</v>
+      </c>
+      <c r="Z69">
+        <v>20.18</v>
+      </c>
       <c r="AC69" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6628,22 +7849,25 @@
       <c r="AG69">
         <v>1.045233964920044</v>
       </c>
-      <c r="AH69" t="s">
-        <v>167</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688118</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>3.91</v>
@@ -6661,7 +7885,7 @@
         <v>31900.39</v>
       </c>
       <c r="J70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -6702,8 +7926,23 @@
       <c r="W70">
         <v>1.63</v>
       </c>
+      <c r="X70">
+        <v>5.02</v>
+      </c>
+      <c r="Y70">
+        <v>35.54</v>
+      </c>
+      <c r="Z70">
+        <v>12.43</v>
+      </c>
       <c r="AC70" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6711,22 +7950,25 @@
       <c r="AG70">
         <v>4.023046970367432</v>
       </c>
-      <c r="AH70" t="s">
-        <v>167</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688189</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-2.58</v>
@@ -6744,7 +7986,7 @@
         <v>41615.2</v>
       </c>
       <c r="J71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K71">
         <v>6</v>
@@ -6785,8 +8027,23 @@
       <c r="W71">
         <v>-0.98</v>
       </c>
+      <c r="X71">
+        <v>-5.23</v>
+      </c>
+      <c r="Y71">
+        <v>15.42</v>
+      </c>
+      <c r="Z71">
+        <v>-0.52</v>
+      </c>
       <c r="AC71" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6794,22 +8051,25 @@
       <c r="AG71">
         <v>2.264045715332031</v>
       </c>
-      <c r="AH71" t="s">
-        <v>167</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688210</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -6827,7 +8087,7 @@
         <v>56442.3</v>
       </c>
       <c r="J72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K72">
         <v>3</v>
@@ -6868,8 +8128,23 @@
       <c r="W72">
         <v>0.45</v>
       </c>
+      <c r="X72">
+        <v>0.58</v>
+      </c>
+      <c r="Y72">
+        <v>43.62</v>
+      </c>
+      <c r="Z72">
+        <v>2.49</v>
+      </c>
       <c r="AC72" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6877,22 +8152,25 @@
       <c r="AG72">
         <v>1.826680064201355</v>
       </c>
-      <c r="AH72" t="s">
-        <v>167</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688258</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>7.3</v>
@@ -6910,7 +8188,7 @@
         <v>65581.35000000001</v>
       </c>
       <c r="J73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -6951,8 +8229,23 @@
       <c r="W73">
         <v>0.61</v>
       </c>
+      <c r="X73">
+        <v>-2.16</v>
+      </c>
+      <c r="Y73">
+        <v>77</v>
+      </c>
+      <c r="Z73">
+        <v>1.5</v>
+      </c>
       <c r="AC73" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>1</v>
@@ -6960,22 +8253,25 @@
       <c r="AG73">
         <v>2.323096990585327</v>
       </c>
-      <c r="AH73" t="s">
-        <v>167</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688500</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>15.8</v>
@@ -6993,7 +8289,7 @@
         <v>55956.23</v>
       </c>
       <c r="J74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K74">
         <v>4</v>
@@ -7034,8 +8330,23 @@
       <c r="W74">
         <v>-0.24</v>
       </c>
+      <c r="X74">
+        <v>-2.43</v>
+      </c>
+      <c r="Y74">
+        <v>90.59</v>
+      </c>
+      <c r="Z74">
+        <v>1.92</v>
+      </c>
       <c r="AC74" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7043,22 +8354,25 @@
       <c r="AG74">
         <v>5.193603038787842</v>
       </c>
-      <c r="AH74" t="s">
-        <v>167</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688502</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>3.27</v>
@@ -7076,7 +8390,7 @@
         <v>50936.24</v>
       </c>
       <c r="J75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K75">
         <v>8</v>
@@ -7117,8 +8431,23 @@
       <c r="W75">
         <v>0.26</v>
       </c>
+      <c r="X75">
+        <v>3.5</v>
+      </c>
+      <c r="Y75">
+        <v>363.88</v>
+      </c>
+      <c r="Z75">
+        <v>3.97</v>
+      </c>
       <c r="AC75" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7126,22 +8455,25 @@
       <c r="AG75">
         <v>2.994461536407471</v>
       </c>
-      <c r="AH75" t="s">
-        <v>167</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688507</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>12.77</v>
@@ -7159,7 +8491,7 @@
         <v>76197.14999999999</v>
       </c>
       <c r="J76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -7200,8 +8532,23 @@
       <c r="W76">
         <v>0.63</v>
       </c>
+      <c r="X76">
+        <v>0.35</v>
+      </c>
+      <c r="Y76">
+        <v>120</v>
+      </c>
+      <c r="Z76">
+        <v>5.99</v>
+      </c>
       <c r="AC76" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7209,22 +8556,25 @@
       <c r="AG76">
         <v>3.824313163757324</v>
       </c>
-      <c r="AH76" t="s">
-        <v>167</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688556</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>7.22</v>
@@ -7242,7 +8592,7 @@
         <v>114751.13</v>
       </c>
       <c r="J77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K77">
         <v>8</v>
@@ -7283,8 +8633,23 @@
       <c r="W77">
         <v>-0.84</v>
       </c>
+      <c r="X77">
+        <v>-1.96</v>
+      </c>
+      <c r="Y77">
+        <v>12.65</v>
+      </c>
+      <c r="Z77">
+        <v>3.94</v>
+      </c>
       <c r="AC77" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7292,22 +8657,25 @@
       <c r="AG77">
         <v>8.275449752807617</v>
       </c>
-      <c r="AH77" t="s">
-        <v>167</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688621</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-2.84</v>
@@ -7325,7 +8693,7 @@
         <v>25794.26</v>
       </c>
       <c r="J78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -7366,8 +8734,23 @@
       <c r="W78">
         <v>-0.28</v>
       </c>
+      <c r="X78">
+        <v>-1.09</v>
+      </c>
+      <c r="Y78">
+        <v>71</v>
+      </c>
+      <c r="Z78">
+        <v>13.6</v>
+      </c>
       <c r="AC78" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
       </c>
       <c r="AF78">
         <v>1</v>
@@ -7375,22 +8758,25 @@
       <c r="AG78">
         <v>5.678006649017334</v>
       </c>
-      <c r="AH78" t="s">
-        <v>167</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688630</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-1.74</v>
@@ -7408,7 +8794,7 @@
         <v>90318</v>
       </c>
       <c r="J79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K79">
         <v>10</v>
@@ -7449,8 +8835,23 @@
       <c r="W79">
         <v>0.2</v>
       </c>
+      <c r="X79">
+        <v>2.18</v>
+      </c>
+      <c r="Y79">
+        <v>125.8</v>
+      </c>
+      <c r="Z79">
+        <v>6.25</v>
+      </c>
       <c r="AC79" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7458,22 +8859,25 @@
       <c r="AG79">
         <v>0.9153527617454529</v>
       </c>
-      <c r="AH79" t="s">
-        <v>167</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688660</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>16.27</v>
@@ -7491,7 +8895,7 @@
         <v>132991.62</v>
       </c>
       <c r="J80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K80">
         <v>11</v>
@@ -7532,8 +8936,23 @@
       <c r="W80">
         <v>0.29</v>
       </c>
+      <c r="X80">
+        <v>0.92</v>
+      </c>
+      <c r="Y80">
+        <v>17</v>
+      </c>
+      <c r="Z80">
+        <v>2.97</v>
+      </c>
       <c r="AC80" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7541,22 +8960,25 @@
       <c r="AG80">
         <v>1.263761401176453</v>
       </c>
-      <c r="AH80" t="s">
-        <v>167</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688668</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>0.55</v>
@@ -7574,7 +8996,7 @@
         <v>66635.24000000001</v>
       </c>
       <c r="J81" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K81">
         <v>15</v>
@@ -7615,8 +9037,23 @@
       <c r="W81">
         <v>-0.06</v>
       </c>
+      <c r="X81">
+        <v>-2.83</v>
+      </c>
+      <c r="Y81">
+        <v>94.98</v>
+      </c>
+      <c r="Z81">
+        <v>1.8</v>
+      </c>
       <c r="AC81" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>1</v>
@@ -7624,22 +9061,25 @@
       <c r="AG81">
         <v>2.718146800994873</v>
       </c>
-      <c r="AH81" t="s">
-        <v>167</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688711</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>19.98</v>
@@ -7657,7 +9097,7 @@
         <v>75127.64</v>
       </c>
       <c r="J82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -7698,8 +9138,23 @@
       <c r="W82">
         <v>0.9</v>
       </c>
+      <c r="X82">
+        <v>-5.57</v>
+      </c>
+      <c r="Y82">
+        <v>31.88</v>
+      </c>
+      <c r="Z82">
+        <v>2.11</v>
+      </c>
       <c r="AC82" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>1</v>
@@ -7707,22 +9162,25 @@
       <c r="AG82">
         <v>7.060803413391113</v>
       </c>
-      <c r="AH82" t="s">
-        <v>168</v>
+      <c r="AH82">
+        <v>1</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688788</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>3.95</v>
@@ -7740,7 +9198,7 @@
         <v>116043.19</v>
       </c>
       <c r="J83" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -7781,8 +9239,23 @@
       <c r="W83">
         <v>-0.2</v>
       </c>
+      <c r="X83">
+        <v>-7.84</v>
+      </c>
+      <c r="Y83">
+        <v>78.19</v>
+      </c>
+      <c r="Z83">
+        <v>-3.81</v>
+      </c>
       <c r="AC83" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7790,22 +9263,25 @@
       <c r="AG83">
         <v>3.50955605506897</v>
       </c>
-      <c r="AH83" t="s">
-        <v>167</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688800</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>0.3</v>
@@ -7823,7 +9299,7 @@
         <v>91498.74000000001</v>
       </c>
       <c r="J84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -7864,8 +9340,23 @@
       <c r="W84">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X84">
+        <v>4.94</v>
+      </c>
+      <c r="Y84">
+        <v>72.5</v>
+      </c>
+      <c r="Z84">
+        <v>7.3</v>
+      </c>
       <c r="AC84" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
       </c>
       <c r="AF84">
         <v>1</v>
@@ -7873,8 +9364,11 @@
       <c r="AG84">
         <v>6.377734661102295</v>
       </c>
-      <c r="AH84" t="s">
-        <v>168</v>
+      <c r="AH84">
+        <v>1</v>
+      </c>
+      <c r="AI84">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
